--- a/data/Electricity_consumption(extracted).xlsx
+++ b/data/Electricity_consumption(extracted).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamwatanabe/Documents/R-statistics/R-Stats/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamwatanabe/Desktop/R_stats/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{382E3896-7275-8240-A9A2-CCAF99E38267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D973149B-6222-2749-B03F-957527AB4FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11680" yWindow="9280" windowWidth="27640" windowHeight="16940" xr2:uid="{CF363331-40E2-844D-94BB-672B57EA75B3}"/>
+    <workbookView xWindow="8800" yWindow="6780" windowWidth="32140" windowHeight="20280" xr2:uid="{CF363331-40E2-844D-94BB-672B57EA75B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
   <si>
     <t>BAYSIDE*</t>
   </si>
@@ -158,16 +158,25 @@
     <t>2020-L</t>
   </si>
   <si>
-    <t>H-2023</t>
-  </si>
-  <si>
-    <t>2023-R</t>
-  </si>
-  <si>
-    <t>2023-M</t>
-  </si>
-  <si>
-    <t>2023-L</t>
+    <t>H2021</t>
+  </si>
+  <si>
+    <t>2021-R</t>
+  </si>
+  <si>
+    <t>2021-M</t>
+  </si>
+  <si>
+    <t>2021-L</t>
+  </si>
+  <si>
+    <t>H2022</t>
+  </si>
+  <si>
+    <t>2022-R</t>
+  </si>
+  <si>
+    <t>2022-M</t>
   </si>
 </sst>
 </file>
@@ -283,19 +292,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 4" xfId="1" xr:uid="{52EA59AB-58F9-1D41-86DF-F67501556043}"/>
@@ -611,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCB078F-7AB5-AE46-91AB-2EDF690E996D}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,57 +630,70 @@
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
     <col min="5" max="5" width="28.83203125" customWidth="1"/>
     <col min="9" max="9" width="20.1640625" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>275637.74388999998</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>136396.73462999999</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>247791.47638000004</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -681,36 +702,48 @@
       <c r="F2" s="2">
         <v>277840</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>128058</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>233729</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>282446.64297999995</v>
+      </c>
+      <c r="K2" s="3">
+        <v>126260.22440000002</v>
+      </c>
+      <c r="L2" s="10">
+        <v>231663.73151000001</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="2">
+      <c r="N2" s="2">
         <v>524345.93487</v>
       </c>
-      <c r="K2" s="5">
+      <c r="O2" s="4">
         <v>132411.10077000002</v>
       </c>
-      <c r="L2" s="11">
+      <c r="P2" s="9">
         <v>209244.81400000001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>64429.868220000004</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>41423.288690000016</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>85936.496060000005</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -719,36 +752,48 @@
       <c r="F3" s="2">
         <v>63676</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>33985</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>86847</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>63397.360900000014</v>
+      </c>
+      <c r="K3" s="4">
+        <v>34494.056690000005</v>
+      </c>
+      <c r="L3" s="9">
+        <v>85330.024129999976</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="2">
+      <c r="N3" s="2">
         <v>407090.08261000004</v>
       </c>
-      <c r="K3" s="5">
+      <c r="O3" s="4">
         <v>610737.3110499999</v>
       </c>
-      <c r="L3" s="11">
+      <c r="P3" s="9">
         <v>1793038.388</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>178404.80896000002</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>67814.562489999997</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>130204.06520000001</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -757,36 +802,48 @@
       <c r="F4" s="2">
         <v>177872</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>60293</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>123356</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>179612.64387999999</v>
+      </c>
+      <c r="K4" s="4">
+        <v>59312.884859999984</v>
+      </c>
+      <c r="L4" s="9">
+        <v>116647.25536999997</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="2">
+      <c r="N4" s="2">
         <v>161245.83736999999</v>
       </c>
-      <c r="K4" s="5">
+      <c r="O4" s="4">
         <v>45891.304469999995</v>
       </c>
-      <c r="L4" s="11">
+      <c r="P4" s="9">
         <v>89681.485000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>644475.61927000037</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>231607.26534000016</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>541471.94009999989</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -795,36 +852,48 @@
       <c r="F5" s="2">
         <v>641654</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>216785</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>509352</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>649150.22003999993</v>
+      </c>
+      <c r="K5" s="4">
+        <v>216296.40498999995</v>
+      </c>
+      <c r="L5" s="9">
+        <v>506225.77268000017</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="2">
+      <c r="N5" s="2">
         <v>166854.87714</v>
       </c>
-      <c r="K5" s="5">
+      <c r="O5" s="4">
         <v>92313.451289999997</v>
       </c>
-      <c r="L5" s="11">
+      <c r="P5" s="9">
         <v>238096.01300000001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>737558.94706999988</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>222131.50620000015</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>541973.62506999972</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -833,36 +902,48 @@
       <c r="F6" s="2">
         <v>101905</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>66148</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>138884</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="2">
+        <v>100806.84269000002</v>
+      </c>
+      <c r="K6" s="4">
+        <v>66374.16207000002</v>
+      </c>
+      <c r="L6" s="9">
+        <v>129533.01785999998</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="2">
+      <c r="N6" s="2">
         <v>189606.50499000002</v>
       </c>
-      <c r="K6" s="5">
+      <c r="O6" s="4">
         <v>50146.91051999999</v>
       </c>
-      <c r="L6" s="11">
+      <c r="P6" s="9">
         <v>46838.542999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>145115.70143999992</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>43135.997849999992</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>71969.69206999999</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -871,36 +952,48 @@
       <c r="F7" s="2">
         <v>269980</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>84134</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>158750</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2">
+        <v>274548.06079000013</v>
+      </c>
+      <c r="K7" s="4">
+        <v>83391.85037</v>
+      </c>
+      <c r="L7" s="9">
+        <v>157452.72629999998</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>763402.75869000005</v>
       </c>
-      <c r="K7" s="5">
+      <c r="O7" s="4">
         <v>206278.049</v>
       </c>
-      <c r="L7" s="11">
+      <c r="P7" s="9">
         <v>491939.86599999998</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>102959.59060000003</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>69427.144819999987</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>149244.31124999997</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -909,36 +1002,48 @@
       <c r="F8" s="2">
         <v>301328</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>71304</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>141425</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="2">
+        <v>304963.41646000015</v>
+      </c>
+      <c r="K8" s="4">
+        <v>71069.560550000024</v>
+      </c>
+      <c r="L8" s="9">
+        <v>141324.0301</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="2">
+      <c r="N8" s="2">
         <v>149465.71424</v>
       </c>
-      <c r="K8" s="5">
+      <c r="O8" s="4">
         <v>38360.628530000002</v>
       </c>
-      <c r="L8" s="11">
+      <c r="P8" s="9">
         <v>69937.008000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>269979.04603000009</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>89799.301080000005</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>167574.32776000001</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -947,36 +1052,48 @@
       <c r="F9" s="2">
         <v>41256</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>7963</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>14420</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="2">
+        <v>41192.018089999998</v>
+      </c>
+      <c r="K9" s="4">
+        <v>7885.6018299999978</v>
+      </c>
+      <c r="L9" s="9">
+        <v>14224.48696</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="2">
+      <c r="N9" s="2">
         <v>438451.99767000001</v>
       </c>
-      <c r="K9" s="5">
+      <c r="O9" s="4">
         <v>116183.87475</v>
       </c>
-      <c r="L9" s="11">
+      <c r="P9" s="9">
         <v>191488.261</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>302536.95118999993</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>76861.646100000042</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>153474.92037000007</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -985,36 +1102,48 @@
       <c r="F10" s="2">
         <v>349231</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>163004</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>214267</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2">
+        <v>351803.33231000003</v>
+      </c>
+      <c r="K10" s="4">
+        <v>161857.42426999996</v>
+      </c>
+      <c r="L10" s="9">
+        <v>212403.25297</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="2">
+      <c r="N10" s="2">
         <v>192454.78746000002</v>
       </c>
-      <c r="K10" s="5">
+      <c r="O10" s="4">
         <v>60297.587390000001</v>
       </c>
-      <c r="L10" s="11">
+      <c r="P10" s="9">
         <v>85092.358999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>41563.213179999992</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>8430.5283100000015</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>15579.245879999999</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1023,36 +1152,48 @@
       <c r="F11" s="2">
         <v>321931</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>53447</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>93260</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="2">
+        <v>325970.81650999986</v>
+      </c>
+      <c r="K11" s="4">
+        <v>52995.157000000021</v>
+      </c>
+      <c r="L11" s="9">
+        <v>92571.864840000009</v>
+      </c>
+      <c r="M11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="2">
+      <c r="N11" s="2">
         <v>43754.624200000006</v>
       </c>
-      <c r="K11" s="5">
+      <c r="O11" s="4">
         <v>26722.99973</v>
       </c>
-      <c r="L11" s="11">
+      <c r="P11" s="9">
         <v>17787.922999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>347085.89094000007</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>171427.96041999999</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>223623.38779999988</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1061,36 +1202,48 @@
       <c r="F12" s="2">
         <v>88120</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>34769</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>59379</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="2">
+        <v>89969.207649999982</v>
+      </c>
+      <c r="K12" s="4">
+        <v>34715.202319999989</v>
+      </c>
+      <c r="L12" s="9">
+        <v>59713.039969999991</v>
+      </c>
+      <c r="M12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="2">
+      <c r="N12" s="2">
         <v>316639.15599</v>
       </c>
-      <c r="K12" s="5">
+      <c r="O12" s="4">
         <v>157074.03338999997</v>
       </c>
-      <c r="L12" s="11">
+      <c r="P12" s="9">
         <v>259378.674</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>324006.00076000002</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>56463.407180000009</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>95252.240580000027</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1099,36 +1252,48 @@
       <c r="F13" s="2">
         <v>88281</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>20820</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>16502</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="2">
+        <v>89035.724989999973</v>
+      </c>
+      <c r="K13" s="4">
+        <v>21195.237579999997</v>
+      </c>
+      <c r="L13" s="9">
+        <v>16164.47516</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="2">
+      <c r="N13" s="2">
         <v>171967.60881999999</v>
       </c>
-      <c r="K13" s="5">
+      <c r="O13" s="4">
         <v>52081.785769999995</v>
       </c>
-      <c r="L13" s="11">
+      <c r="P13" s="9">
         <v>86315.456000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>431616.78663000016</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>119210.38062999991</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>192764.12140000003</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -1137,36 +1302,48 @@
       <c r="F14" s="2">
         <v>164683</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>124810</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>189370</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="2">
+        <v>163938.19279999999</v>
+      </c>
+      <c r="K14" s="4">
+        <v>115931.52346000001</v>
+      </c>
+      <c r="L14" s="9">
+        <v>189261.10848</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="2">
+      <c r="N14" s="2">
         <v>64936.533000000003</v>
       </c>
-      <c r="K14" s="5">
+      <c r="O14" s="4">
         <v>27498.210480000002</v>
       </c>
-      <c r="L14" s="11">
+      <c r="P14" s="9">
         <v>30960.920999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>86791.209129999988</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>37350.598519999992</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>60735.376440000007</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1175,36 +1352,48 @@
       <c r="F15" s="2">
         <v>563225</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>192443</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>295043</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="2">
+        <v>573905.58957000042</v>
+      </c>
+      <c r="K15" s="4">
+        <v>188089.01376999999</v>
+      </c>
+      <c r="L15" s="9">
+        <v>294507.31597</v>
+      </c>
+      <c r="M15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="2">
+      <c r="N15" s="2">
         <v>35159.915000000001</v>
       </c>
-      <c r="K15" s="5">
+      <c r="O15" s="4">
         <v>19773.735969999998</v>
       </c>
-      <c r="L15" s="11">
+      <c r="P15" s="9">
         <v>8599.2790000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>190943.66354000004</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>60849.077989999998</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>98428.168520000007</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1213,24 +1402,36 @@
       <c r="F16" s="2">
         <v>78614</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>55328</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>271294</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="2">
+        <v>80817.389259999996</v>
+      </c>
+      <c r="K16" s="4">
+        <v>54458.152710000002</v>
+      </c>
+      <c r="L16" s="9">
+        <v>265675.84560999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>87810.447</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>21952.579759999997</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>18056.855600000003</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1239,24 +1440,36 @@
       <c r="F17" s="2">
         <v>267170</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>74103</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>176486</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="2">
+        <v>269308.70149999991</v>
+      </c>
+      <c r="K17" s="4">
+        <v>73573.887239999982</v>
+      </c>
+      <c r="L17" s="9">
+        <v>175400.52962000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>47029.676149999999</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>36190.46701</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>24367.717129999997</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1265,24 +1478,36 @@
       <c r="F18" s="2">
         <v>233141</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>107998</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>406444</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="2">
+        <v>233915.42765999996</v>
+      </c>
+      <c r="K18" s="4">
+        <v>107627.37999000003</v>
+      </c>
+      <c r="L18" s="9">
+        <v>391837.96305999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>313648.47982000001</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>173336.29407999996</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>279429.68463999993</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -1291,24 +1516,36 @@
       <c r="F19" s="2">
         <v>78334</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>40033</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>114356</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="2">
+        <v>77776.368759999998</v>
+      </c>
+      <c r="K19" s="4">
+        <v>40670.718519999988</v>
+      </c>
+      <c r="L19" s="9">
+        <v>113686.89933000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>161742.57775999999</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>136302.56005000003</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>199030.86398000002</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1317,24 +1554,36 @@
       <c r="F20" s="2">
         <v>508842</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>136435</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>218620</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="2">
+        <v>516554.64178999997</v>
+      </c>
+      <c r="K20" s="4">
+        <v>137172.39824999988</v>
+      </c>
+      <c r="L20" s="9">
+        <v>215467.92838999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>553259.49998999992</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>205694.94127000001</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>316995.52630000014</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1343,24 +1592,36 @@
       <c r="F21" s="2">
         <v>403913</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>699108</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>2013802</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="2">
+        <v>399910.41935000004</v>
+      </c>
+      <c r="K21" s="4">
+        <v>646382.40674000047</v>
+      </c>
+      <c r="L21" s="9">
+        <v>1866640.5050899999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>76627.511629999994</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>58562.309479999989</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>287686.01202000002</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -1369,24 +1630,36 @@
       <c r="F22" s="2">
         <v>158137</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>51176</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>101197</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="2">
+        <v>159636.64311000006</v>
+      </c>
+      <c r="K22" s="4">
+        <v>49438.090230000016</v>
+      </c>
+      <c r="L22" s="9">
+        <v>95555.019379999983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>168316.68406000003</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>54773.451789999977</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>98840.164489999966</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -1395,24 +1668,36 @@
       <c r="F23" s="2">
         <v>161838</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <v>107076</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>262893</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="2">
+        <v>163489.64713</v>
+      </c>
+      <c r="K23" s="4">
+        <v>99355.302909999984</v>
+      </c>
+      <c r="L23" s="9">
+        <v>248920.68501000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>265751.25088999997</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>76999.286620000013</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>188511.19380999997</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -1421,249 +1706,369 @@
       <c r="F24" s="2">
         <v>185504</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="4">
         <v>50558</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>48445</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="2">
+        <v>187487.74119000006</v>
+      </c>
+      <c r="K24" s="4">
+        <v>50228.969180000015</v>
+      </c>
+      <c r="L24" s="9">
+        <v>48143.455790000007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>230972.71651000003</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>112962.65555999998</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>430840.05238999997</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F25" s="2">
         <v>740013</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="4">
         <v>205419</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="4">
         <v>511600</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="2">
+        <v>749993.75162999984</v>
+      </c>
+      <c r="K25" s="4">
+        <v>208282.67025999996</v>
+      </c>
+      <c r="L25" s="9">
+        <v>507257.0021199999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>68901.038489999992</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>36225.021719999997</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>54173.357459999999</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="2">
         <v>143766</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <v>38371</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <v>71589</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="2">
+        <v>145062.19126000011</v>
+      </c>
+      <c r="K26" s="4">
+        <v>38708.856800000001</v>
+      </c>
+      <c r="L26" s="9">
+        <v>73069.189059999975</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>79130.366379999992</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>41233.154770000008</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>117984.21656999999</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="2">
         <v>431483</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <v>114994</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <v>182208</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="2">
+        <v>433830.86633000034</v>
+      </c>
+      <c r="K27" s="4">
+        <v>118244.94450999999</v>
+      </c>
+      <c r="L27" s="9">
+        <v>189172.40851999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="2">
         <v>506894.71558999998</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>144122.07788999996</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>234726.85485999996</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="2">
         <v>186509</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="4">
         <v>57758</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="4">
         <v>92526</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="2">
+        <v>186156.22587000002</v>
+      </c>
+      <c r="K28" s="4">
+        <v>59161.528079999996</v>
+      </c>
+      <c r="L28" s="9">
+        <v>91106.934469999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>405347.17428000004</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>765551.63809000037</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>2188957.8871799991</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F29" s="2">
         <v>45972</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <v>34282</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <v>23641</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="2">
+        <v>43567.832670000003</v>
+      </c>
+      <c r="K29" s="4">
+        <v>28306.772560000001</v>
+      </c>
+      <c r="L29" s="9">
+        <v>19973.426880000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>37417.425300000017</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>27044.335009999992</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>12117.669479999999</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F30" s="2">
         <v>310556</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="4">
         <v>158203</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="4">
         <v>267042</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="2">
+        <v>311806.04897000024</v>
+      </c>
+      <c r="K30" s="4">
+        <v>156675.7549900001</v>
+      </c>
+      <c r="L30" s="9">
+        <v>263849.58008000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>157047.44969000004</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>54462.109789999995</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>110685.34802999998</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F31" s="2">
         <v>166628</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="4">
         <v>52047</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="4">
         <v>92560</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="2">
+        <v>169997.82292999999</v>
+      </c>
+      <c r="K31" s="4">
+        <v>53077.872710000003</v>
+      </c>
+      <c r="L31" s="9">
+        <v>89789.91025000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>160995.21746999997</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>116980.43243000002</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>278866.59891</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="2">
         <v>66958</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <v>34645</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="4">
         <v>45571</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="2">
+        <v>64190.690109999974</v>
+      </c>
+      <c r="K32" s="4">
+        <v>27270.280620000009</v>
+      </c>
+      <c r="L32" s="9">
+        <v>32676.203140000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="2">
         <v>184466.53581999996</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>55203.250150000022</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>51202.494299999998</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F33" s="2">
         <v>36709</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="4">
         <v>24176</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="4">
         <v>10388</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
+      <c r="I33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="2">
+        <v>34744.975190000012</v>
+      </c>
+      <c r="K33" s="4">
+        <v>20682.525589999997</v>
+      </c>
+      <c r="L33" s="9">
+        <v>8937.4913000000015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
